--- a/biology/Botanique/Voyria_rosea/Voyria_rosea.xlsx
+++ b/biology/Botanique/Voyria_rosea/Voyria_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyria rosea est une espèce de plante herbacées mycohétérotrophes endémique du plateau des Guyanes, appartenant à la famille des Gentianaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyria rosea est une herbacée haute de 10-20 cm.
 Les tiges sont de couleur rouge saumon.
@@ -520,7 +534,7 @@
 Les étamines avec un appendice velu à la base des thèques.
 L'ovaire est subsessile et dépourvu de glandes.
 Le fruit est une capsule indéhiscentes.
-Les graines sont subglobuleuses[3],[4].
+Les graines sont subglobuleuses,.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Voyria rosea du Venezuela à la Guyane en passant par le Guyana et le Suriname, dans les forêts à 0-800 m d'altitude[2],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Voyria rosea du Venezuela à la Guyane en passant par le Guyana et le Suriname, dans les forêts à 0-800 m d'altitude,.
 </t>
         </is>
       </c>
@@ -580,14 +596,16 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voyria rosea est saisonnièrement commun (janvier à octobre), dans les forêts de terre ferme[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Voyria rosea est saisonnièrement commun (janvier à octobre), dans les forêts de terre ferme.
 Voyria rosea a été étudiée sous divers aspects :
-la morphologie de son pollen[5]
-la biologie de sa reproduction[6],[7]
-sa relation symbiotique/parasitique avec ses champignons hôtes[8],[9],[10],[11],[12],[13]
-sa classification phyllogénétique[14],[15]</t>
+la morphologie de son pollen
+la biologie de sa reproduction,
+sa relation symbiotique/parasitique avec ses champignons hôtes
+sa classification phyllogénétique,</t>
         </is>
       </c>
     </row>
@@ -615,9 +633,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aublet rapporte en 1775 (probablement par erreur) que le tubercule de Voyria rosea était consommé par les Garipons, cuit sous la braise, et avait un goût rappelant la pomme de terre[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aublet rapporte en 1775 (probablement par erreur) que le tubercule de Voyria rosea était consommé par les Garipons, cuit sous la braise, et avait un goût rappelant la pomme de terre.
 </t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[16] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 1. Voyria (roſea) floribus geminatis ; laciniis corollæ acutis. (TABULA 83. Fig. 1.) 
 Planta perennis. Radix tuberoſa, ampla, fibras ramoſas hinc &amp; indè emittens. Caulis tetragonus, ſimplex, in terra deliteſcens, nodoſus. Squamulæ acutæ, baſi amplexicaules. Rami tres, quatuor aut quinque, unciales, nodoſi, ſquamoſi, biflori, rariſſimè uniflori. Corolla incarnata; limbo quinquefido, lobis acutis.
 Radix cocta edulis, guſtu ſaporem ſolani tuberoſi eſculenti refert.
